--- a/xls/UJEP-Filozofická fakulta_Local.xlsx
+++ b/xls/UJEP-Filozofická fakulta_Local.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="109">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,12 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
     <t>Jimp</t>
   </si>
   <si>
@@ -82,6 +88,15 @@
     <t>Maškarinec, Pavel, 8969221</t>
   </si>
   <si>
+    <t>Schuppener, Georg, 7169159</t>
+  </si>
+  <si>
+    <t>Schmidt, Marek, 7480091</t>
+  </si>
+  <si>
+    <t>Jičínská, Veronika, 5820707</t>
+  </si>
+  <si>
     <t>Fejtová, Olga, 3157229</t>
   </si>
   <si>
@@ -94,6 +109,15 @@
     <t>Novotný, Lukáš, 8865302</t>
   </si>
   <si>
+    <t>Hrdličková, Jana, 2385139</t>
+  </si>
+  <si>
+    <t>Schuppener, Georg, 7169159; Bergerová, Hana, 3472035; Schmidt, Marek, 7480091</t>
+  </si>
+  <si>
+    <t>Bergerová, Hana, 3472035</t>
+  </si>
+  <si>
     <t>Zeman, Václav, 7122144</t>
   </si>
   <si>
@@ -103,6 +127,15 @@
     <t>For whom the Bell Tolls: Grievance Theory and the Rise of New Political Parties in the 2010 and 2013 Czech Parliamentary Elections</t>
   </si>
   <si>
+    <t>Nationale Sozialisten gegen das System - Die Lexik rechtsextremer Internet-Seiten</t>
+  </si>
+  <si>
+    <t>Zum Informationsangebot deutscher Aussprachewörterbücher für tschechische Germanistikstudierende</t>
+  </si>
+  <si>
+    <t>Franz Kafkas (Un)Musikalität: Bemerkungen zu Max Brods Übersetzung des Librettos von Janáčeks Jenůfa.</t>
+  </si>
+  <si>
     <t>Karel Škréta. Malíř českého baroka a jeho českobratrské kořeny</t>
   </si>
   <si>
@@ -118,9 +151,18 @@
     <t>German Language and German Minority</t>
   </si>
   <si>
+    <t>Hermetik und die Shoah bei Paul Celan und Nelly Sachs</t>
+  </si>
+  <si>
+    <t>Vorwort</t>
+  </si>
+  <si>
     <t>Prostorová analýza prezidentských voleb v České republice v roce 2013</t>
   </si>
   <si>
+    <t>Emotionswortschatz: (lerner)lexikographisch und korpuslinguistisch. Fallbeispiel: Kollokationen des Typs Verb Adverb</t>
+  </si>
+  <si>
     <t>Tomistický antropologický dualismus</t>
   </si>
   <si>
@@ -130,15 +172,15 @@
     <t>Nationalisation of the Czech Local Party System: Case Study of the 2010 Local Elections in Municipalities with Extended Powers</t>
   </si>
   <si>
-    <t>Jednota bratrská a rodinné zázemí Václava Hollara</t>
-  </si>
-  <si>
     <t>J.G.Fichte a jeho vize budoucí politiky</t>
   </si>
   <si>
     <t>0049-1225</t>
   </si>
   <si>
+    <t>1802-6419</t>
+  </si>
+  <si>
     <t>0049-5123</t>
   </si>
   <si>
@@ -154,12 +196,12 @@
     <t>0009-0794</t>
   </si>
   <si>
-    <t>0862-6111</t>
-  </si>
-  <si>
     <t>Sociologia</t>
   </si>
   <si>
+    <t>Aussiger Beiträge. Germanistische Schriftenreihe aus Forschung und Lehre</t>
+  </si>
+  <si>
     <t>Umění</t>
   </si>
   <si>
@@ -175,9 +217,6 @@
     <t>Český lid</t>
   </si>
   <si>
-    <t>Český časopis historický</t>
-  </si>
-  <si>
     <t>2 - SPOLEČENSKÉ VĚDY -  SHVb</t>
   </si>
   <si>
@@ -196,6 +235,15 @@
     <t>094eb491d4ba8be7cf59c2515530c2fbe668461e</t>
   </si>
   <si>
+    <t>116b6a7f43c51c30ebddbb5ed1d05f0a851d406c</t>
+  </si>
+  <si>
+    <t>21362e9b71a9901ff49a2ebaf3cf8415a7c18692</t>
+  </si>
+  <si>
+    <t>3e19d8be96481ca74609003547402ee1592b638e</t>
+  </si>
+  <si>
     <t>48c5d8e816f4d971684a9f40cff27b711cecba47</t>
   </si>
   <si>
@@ -211,9 +259,18 @@
     <t>924dae79847072fe48f3650ec5e4d3dd243a242a</t>
   </si>
   <si>
+    <t>97fe0adafe29aecde0867a2780a82b37d97a00b1</t>
+  </si>
+  <si>
+    <t>9dd7dd8d5274401628a0155c251a7c88d4a99af5</t>
+  </si>
+  <si>
     <t>bee35e28b460e58ec91b2fc4312b96c82557a827</t>
   </si>
   <si>
+    <t>d5bdfd4f31478eba248f2574648e37ed364fcd77</t>
+  </si>
+  <si>
     <t>dd02dad2c76a9fd0b16f33414dad59e424a2a79d</t>
   </si>
   <si>
@@ -223,9 +280,6 @@
     <t>f3c716911fb80f93a41534f28b01efb18cf865b0</t>
   </si>
   <si>
-    <t>f48187227c6b02f37c0bc944fa1cb3ca9075162d</t>
-  </si>
-  <si>
     <t>fd88dd2485478561bc31b2e098330b97f2ac55a6</t>
   </si>
   <si>
@@ -241,6 +295,12 @@
     <t>AD - Politologie a politické vědy</t>
   </si>
   <si>
+    <t>AI - Jazykověda</t>
+  </si>
+  <si>
+    <t>AJ - Písemnictví, mas-media, audiovize</t>
+  </si>
+  <si>
     <t>AB - Dějiny</t>
   </si>
   <si>
@@ -257,6 +317,30 @@
   </si>
   <si>
     <t>UJEP-Univerzita Jana Evangelisty Purkyně v Ústí nad Labem</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Social Sciences</t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
   </si>
 </sst>
 </file>
@@ -627,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -638,7 +722,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -696,13 +780,19 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2">
         <v>2014</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -711,678 +801,1060 @@
         <v>5.9251413</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="I2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="P2">
         <v>44555601</v>
       </c>
       <c r="Q2" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="R2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="S2" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="T2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>34.626999</v>
+        <v>12.699</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="L3" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="P3">
         <v>44555601</v>
       </c>
       <c r="Q3" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="R3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="S3" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="T3" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>13.296</v>
+        <v>12.699</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N4" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="P4">
         <v>44555601</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="R4" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="S4" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="T4" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>6.647999799999999</v>
+        <v>11.017161</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I5" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K5" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="P5">
         <v>44555601</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="R5" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="S5" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="T5" t="s">
+        <v>103</v>
+      </c>
+      <c r="U5" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>8.0000591</v>
+        <v>34.626999</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M6" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="P6">
         <v>44555601</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="R6" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="S6" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="T6" t="s">
+        <v>104</v>
+      </c>
+      <c r="U6" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="A7">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>9.529350300000001</v>
+        <v>13.296</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N7" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="P7">
         <v>44555601</v>
       </c>
       <c r="Q7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" t="s">
+        <v>99</v>
+      </c>
+      <c r="S7" t="s">
+        <v>100</v>
+      </c>
+      <c r="T7" t="s">
+        <v>105</v>
+      </c>
+      <c r="U7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8">
+        <v>2011</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>6.647999799999999</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
         <v>78</v>
       </c>
-      <c r="R7" t="s">
-        <v>79</v>
-      </c>
-      <c r="S7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8">
-        <v>2013</v>
-      </c>
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>10.772</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" t="s">
-        <v>65</v>
-      </c>
       <c r="L8" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M8" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O8" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="P8">
         <v>44555601</v>
       </c>
       <c r="Q8" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="R8" t="s">
+        <v>99</v>
+      </c>
+      <c r="S8" t="s">
+        <v>100</v>
+      </c>
+      <c r="T8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9">
+        <v>2015</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>8.0000591</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" t="s">
         <v>79</v>
       </c>
-      <c r="S8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9">
-        <v>2011</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9">
-        <v>6.647999799999999</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H9" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" t="s">
-        <v>54</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
-      </c>
       <c r="L9" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M9" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N9" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O9" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="P9">
         <v>44555601</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="R9" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="S9" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="T9" t="s">
+        <v>105</v>
+      </c>
+      <c r="U9" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="A10">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10">
-        <v>13.861</v>
+        <v>9.529350300000001</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="H10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M10" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O10" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="P10">
         <v>44555601</v>
       </c>
       <c r="Q10" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="R10" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="S10" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="T10" t="s">
+        <v>101</v>
+      </c>
+      <c r="U10" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="A11">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11">
-        <v>10.581919</v>
+        <v>11.017161</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="K11" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L11" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M11" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N11" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O11" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="P11">
         <v>44555601</v>
       </c>
       <c r="Q11" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="R11" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="S11" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="T11" t="s">
+        <v>103</v>
+      </c>
+      <c r="U11" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>2013</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12">
-        <v>21.507</v>
+        <v>12.699</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="K12" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="L12" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M12" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="P12">
         <v>44555601</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="R12" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="S12" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="T12" t="s">
+        <v>102</v>
+      </c>
+      <c r="U12" t="s">
+        <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="A13">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>13.296</v>
+        <v>10.772</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
+        <v>67</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="K13" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="M13" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="N13" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="O13" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="P13">
         <v>44555601</v>
       </c>
       <c r="Q13" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="R13" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="S13" t="s">
-        <v>80</v>
+        <v>100</v>
+      </c>
+      <c r="T13" t="s">
+        <v>101</v>
+      </c>
+      <c r="U13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14">
+        <v>2013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>12.699</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" t="s">
+        <v>90</v>
+      </c>
+      <c r="N14" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14">
+        <v>44555601</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" t="s">
+        <v>99</v>
+      </c>
+      <c r="S14" t="s">
+        <v>100</v>
+      </c>
+      <c r="T14" t="s">
+        <v>102</v>
+      </c>
+      <c r="U14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15">
+        <v>2011</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>6.647999799999999</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" t="s">
+        <v>89</v>
+      </c>
+      <c r="M15" t="s">
+        <v>90</v>
+      </c>
+      <c r="N15" t="s">
+        <v>91</v>
+      </c>
+      <c r="O15" t="s">
+        <v>96</v>
+      </c>
+      <c r="P15">
+        <v>44555601</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15" t="s">
+        <v>99</v>
+      </c>
+      <c r="S15" t="s">
+        <v>100</v>
+      </c>
+      <c r="T15" t="s">
+        <v>105</v>
+      </c>
+      <c r="U15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16">
+        <v>2012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>13.861</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" t="s">
+        <v>90</v>
+      </c>
+      <c r="N16" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" t="s">
+        <v>97</v>
+      </c>
+      <c r="P16">
+        <v>44555601</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>98</v>
+      </c>
+      <c r="R16" t="s">
+        <v>99</v>
+      </c>
+      <c r="S16" t="s">
+        <v>100</v>
+      </c>
+      <c r="T16" t="s">
+        <v>106</v>
+      </c>
+      <c r="U16" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>10.581919</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" t="s">
+        <v>89</v>
+      </c>
+      <c r="M17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17">
+        <v>44555601</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" t="s">
+        <v>99</v>
+      </c>
+      <c r="S17" t="s">
+        <v>100</v>
+      </c>
+      <c r="T17" t="s">
+        <v>101</v>
+      </c>
+      <c r="U17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>13.296</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N18" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18">
+        <v>44555601</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>98</v>
+      </c>
+      <c r="R18" t="s">
+        <v>99</v>
+      </c>
+      <c r="S18" t="s">
+        <v>100</v>
+      </c>
+      <c r="T18" t="s">
+        <v>105</v>
+      </c>
+      <c r="U18" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1"/>
-    <hyperlink ref="J8" r:id="rId2"/>
-    <hyperlink ref="J11" r:id="rId3"/>
+    <hyperlink ref="J13" r:id="rId2"/>
+    <hyperlink ref="J17" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
